--- a/ohio2016/inputData/J. Beaulieu Chlorophyll 2016/Beaulieu 08102016.xlsx
+++ b/ohio2016/inputData/J. Beaulieu Chlorophyll 2016/Beaulieu 08102016.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kwyatt\Desktop\J. Beaulieu Chlorophyll 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBEAULIE\GitRepository\mulitResSurvey\ohio2016\inputData\J. Beaulieu Chlorophyll 2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="CHL-A" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,13 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,6 +224,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,6 +276,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,41 +445,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -466,12 +515,25 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,7 +553,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -511,7 +573,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -531,7 +593,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -551,7 +613,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -571,7 +633,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -591,7 +653,7 @@
         <v>0.1613</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -611,7 +673,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -631,7 +693,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -651,7 +713,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -671,7 +733,7 @@
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -691,7 +753,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -711,7 +773,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -731,7 +793,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -750,13 +812,6 @@
       <c r="F21" s="1">
         <v>2.2000000000000001E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
